--- a/ResultsMediumSetups.xlsx
+++ b/ResultsMediumSetups.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udcgal-my.sharepoint.com/personal/d_ruisanchez_udc_es/Documents/PONENCIAS/50.GNNs_PilotAPs/Code/cfMIMO_AP_ONOFF_20241129/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="11_AD4D80C4656A4B7AC02E74FC939C597E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF54F79-D85F-407F-8A20-1CFBCEBAC445}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="11_AD4D80C4656A4B7AC02E74FC939C597E5BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF140171-E7A5-4697-B18F-5640DE635C00}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="108">
   <si>
     <t>local_ES</t>
   </si>
@@ -210,14 +209,1952 @@
     <t>Model_L_9_N_4_Q_3_T_5_f_5_K_(3_6)_taup_10_NbrSamp_30000_Epochs_7_SAGEConv_mean</t>
   </si>
   <si>
-    <t>GNN-f2</t>
+    <t>GNNE</t>
+  </si>
+  <si>
+    <t>Model_L_12_N_4_Q_2_T_4_f_5_K_(6_10)_taup_100_NbrSamp_20000_Epochs_7_SAGEConv_mean</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB200B2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>, UE_feature_size):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF8888C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB200B2"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.bipartite = SAGEConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">*UE_feature_size, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>root_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>aggr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'mean'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.sameCPU = GCNConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">normalize </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>add_self_loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.diffCPU = GCNConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">normalize </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>add_self_loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.linear1 = th.nn.Linear(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.linear2 = th.nn.Linear(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.sigmoid = th.nn.Sigmoid()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.diffCPU = GCNConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">normalize </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>add_self_loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>GNNA-C</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.bipartite = SAGEConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">*UE_feature_size, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>root_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>aggr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'sum'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>GNNE-f2</t>
+  </si>
+  <si>
+    <t>Model_L_12_N_4_Q_2_T_4_f_5_K_(6_10)_taup_100_NbrSamp_20000_Epochs_7_SAGEConv_sum</t>
+  </si>
+  <si>
+    <t>GNNF</t>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.bipartite = SAGEConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">*UE_feature_size, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>root_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>aggr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'sum'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.sameCPU = GCNConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">normalize </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>add_self_loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.diffCPU = GCNConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">normalize </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>add_self_loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.linear1 = th.nn.Linear(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.linear2 = th.nn.Linear(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.sigmoid = th.nn.Sigmoid()</t>
+    </r>
+  </si>
+  <si>
+    <t>GNNF-f2</t>
+  </si>
+  <si>
+    <t>GNNF-f3</t>
+  </si>
+  <si>
+    <t>T = 4 Q = 2</t>
+  </si>
+  <si>
+    <t>GNNG</t>
+  </si>
+  <si>
+    <t>GNNG-f2</t>
+  </si>
+  <si>
+    <t>Model_L_16_N_4_Q_1_T_2_f_5_K_(6_14)_taup_100_NbrSamp_20000_Epochs_7_SAGEConv_sum</t>
+  </si>
+  <si>
+    <t>GNNH-f2</t>
+  </si>
+  <si>
+    <t>GNNH</t>
+  </si>
+  <si>
+    <t>Model_L_(12_16)_N_4_Q_(2_1)_T_(4_2)_f_5_K_(6_14)_taup_100_NbrSamp_40000_Epochs_7_SAGEConv_sum</t>
+  </si>
+  <si>
+    <t>GNNGainA</t>
+  </si>
+  <si>
+    <t>Model_L_12_N_4_Q_2_T_4_f_5_taup_100_NbrSamp_20000_Epochs_7_SAGEConv_sum</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.bipartite = SAGEConv(UE_feature_size, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>root_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>aggr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'sum'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.sameCPU = GCNConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>normalize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>add_self_loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.diffCPU = GCNConv(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>normalize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA4926"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>add_self_loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCF8E6D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.linear1 = th.nn.Linear(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF94558D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>.linear2 = th.nn.Linear(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF2AACB8"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFBCBEC4"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>GNNGainB</t>
+  </si>
+  <si>
+    <t>Model_L_12_N_4_Q_2_T_4_f_5_taup_100_NbrSamp_20000_Epochs_12_SAGEConv_sum</t>
+  </si>
+  <si>
+    <t>GNNGainC</t>
+  </si>
+  <si>
+    <t>Model_L_12_N_4_Q_2_T_4_f_5_taup_100_NbrSamp_20000_Epochs_20_SAGEConv_sum</t>
+  </si>
+  <si>
+    <t>GNNGainC-f5</t>
+  </si>
+  <si>
+    <t>GNNGainC-f1</t>
+  </si>
+  <si>
+    <t>GNNGainA-f1</t>
+  </si>
+  <si>
+    <t>GNNGainD-f1</t>
+  </si>
+  <si>
+    <t>GNNGainA-D</t>
+  </si>
+  <si>
+    <t>Model_L_12_N_4_Q_2_T_4_f_5_taup_100_NbrSamp_20000_Epochs_30_SAGEConv_sum</t>
+  </si>
+  <si>
+    <t>GNNF-f1</t>
+  </si>
+  <si>
+    <t>GNNGains</t>
+  </si>
+  <si>
+    <t>GNNCorrMat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +2187,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCF8E6D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFB200B2"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF94558D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF8888C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2AACB8"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFAA4926"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color theme="9"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +2259,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -357,7 +2367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -367,6 +2377,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,16 +2405,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -393,6 +2417,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00FF"/>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -671,22 +2701,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:AF151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="H74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X109" sqref="X109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
+    <col min="30" max="30" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -1945,7 +3978,7 @@
         <v>13.64512</v>
       </c>
     </row>
-    <row r="49" spans="5:26">
+    <row r="49" spans="5:29">
       <c r="G49">
         <v>10.04693</v>
       </c>
@@ -1983,7 +4016,7 @@
         <v>16.858550000000001</v>
       </c>
     </row>
-    <row r="50" spans="5:26">
+    <row r="50" spans="5:29">
       <c r="G50">
         <v>8.4668700000000001</v>
       </c>
@@ -2021,7 +4054,7 @@
         <v>11.86106</v>
       </c>
     </row>
-    <row r="51" spans="5:26">
+    <row r="51" spans="5:29">
       <c r="G51">
         <v>8.2292100000000001</v>
       </c>
@@ -2059,7 +4092,7 @@
         <v>14.63505</v>
       </c>
     </row>
-    <row r="52" spans="5:26">
+    <row r="52" spans="5:29">
       <c r="G52">
         <v>10.231859999999999</v>
       </c>
@@ -2097,7 +4130,7 @@
         <v>16.947140000000001</v>
       </c>
     </row>
-    <row r="53" spans="5:26">
+    <row r="53" spans="5:29">
       <c r="G53">
         <v>8.3975100000000005</v>
       </c>
@@ -2135,7 +4168,7 @@
         <v>13.276630000000001</v>
       </c>
     </row>
-    <row r="54" spans="5:26">
+    <row r="54" spans="5:29">
       <c r="G54">
         <v>8.9824800000000007</v>
       </c>
@@ -2173,7 +4206,7 @@
         <v>14.38832</v>
       </c>
     </row>
-    <row r="55" spans="5:26">
+    <row r="55" spans="5:29">
       <c r="G55">
         <v>8.1369399999999992</v>
       </c>
@@ -2211,7 +4244,7 @@
         <v>11.305009999999999</v>
       </c>
     </row>
-    <row r="56" spans="5:26">
+    <row r="56" spans="5:29">
       <c r="G56">
         <v>7.1040700000000001</v>
       </c>
@@ -2249,67 +4282,67 @@
         <v>12.00155</v>
       </c>
     </row>
-    <row r="61" spans="5:26" ht="15.75" thickBot="1">
-      <c r="P61" s="5" t="s">
+    <row r="61" spans="5:29" ht="15" thickBot="1">
+      <c r="P61" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="U61" s="5" t="s">
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="AA61" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="5:26">
-      <c r="E62" s="6" t="s">
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+    </row>
+    <row r="62" spans="5:29">
+      <c r="E62" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="6" t="s">
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
-      <c r="O62" s="5" t="s">
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="5"/>
+      <c r="O62" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="AA62" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-    </row>
-    <row r="63" spans="5:26">
-      <c r="E63" s="9" t="s">
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16"/>
+    </row>
+    <row r="63" spans="5:29">
+      <c r="E63" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="G63" t="s">
         <v>45</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="I63" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" t="s">
         <v>46</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" t="s">
         <v>1</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="L63" s="7" t="s">
         <v>55</v>
       </c>
       <c r="N63" t="s">
@@ -2328,45 +4361,63 @@
         <v>7</v>
       </c>
       <c r="S63" t="s">
+        <v>55</v>
+      </c>
+      <c r="T63" t="s">
         <v>57</v>
       </c>
       <c r="U63" t="s">
+        <v>70</v>
+      </c>
+      <c r="V63" t="s">
+        <v>72</v>
+      </c>
+      <c r="W63" t="s">
+        <v>79</v>
+      </c>
+      <c r="X63" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA63" t="s">
         <v>49</v>
       </c>
-      <c r="V63" t="s">
+      <c r="AB63" t="s">
         <v>1</v>
       </c>
-      <c r="W63" t="s">
+      <c r="AC63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="5:26">
-      <c r="E64" s="9">
+    <row r="64" spans="5:29">
+      <c r="E64" s="6">
         <v>123.39426</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64">
         <v>121.61234</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64">
         <v>105.61673</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="7">
         <v>123.83035</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="6">
         <v>121.93407999999999</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64">
         <v>122.04742</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64">
         <v>123.76734</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="7">
         <v>122.10535</v>
       </c>
       <c r="N64">
-        <v>121.19944</v>
+        <v>118.40448000000001</v>
       </c>
       <c r="O64">
         <v>119.63889</v>
@@ -2375,51 +4426,69 @@
         <v>120.07427</v>
       </c>
       <c r="Q64">
-        <v>121.15128</v>
+        <v>118.40723</v>
       </c>
       <c r="R64">
-        <v>107.62461999999999</v>
+        <v>106.35484</v>
       </c>
       <c r="S64">
         <v>120.12399000000001</v>
       </c>
+      <c r="T64">
+        <v>114.74773</v>
+      </c>
       <c r="U64">
+        <v>118.26282</v>
+      </c>
+      <c r="V64">
+        <v>112.8608</v>
+      </c>
+      <c r="W64">
+        <v>117.5089</v>
+      </c>
+      <c r="X64">
+        <v>116.39595</v>
+      </c>
+      <c r="Y64">
+        <v>105.27226</v>
+      </c>
+      <c r="AA64">
         <v>121.2604</v>
       </c>
-      <c r="V64">
+      <c r="AB64">
         <v>120.90451</v>
       </c>
-      <c r="W64">
+      <c r="AC64">
         <v>109.40519999999999</v>
       </c>
     </row>
-    <row r="65" spans="5:23">
-      <c r="E65" s="9">
+    <row r="65" spans="5:29">
+      <c r="E65" s="6">
         <v>116.69428000000001</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65">
         <v>117.44596</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65">
         <v>106.1249</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="7">
         <v>124.33139</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="6">
         <v>124.69177000000001</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65">
         <v>122.27733000000001</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65">
         <v>126.19524</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="7">
         <v>123.89764</v>
       </c>
       <c r="N65">
-        <v>123.72953</v>
+        <v>130.42250999999999</v>
       </c>
       <c r="O65">
         <v>122.42116</v>
@@ -2428,51 +4497,69 @@
         <v>121.4212</v>
       </c>
       <c r="Q65">
-        <v>123.45337000000001</v>
+        <v>129.30867000000001</v>
       </c>
       <c r="R65">
-        <v>111.86601</v>
+        <v>120.78003</v>
       </c>
       <c r="S65">
         <v>122.01342</v>
       </c>
+      <c r="T65">
+        <v>124.92017</v>
+      </c>
       <c r="U65">
+        <v>129.37823</v>
+      </c>
+      <c r="V65">
+        <v>126.52159</v>
+      </c>
+      <c r="W65">
+        <v>131.03518</v>
+      </c>
+      <c r="X65">
+        <v>129.71109999999999</v>
+      </c>
+      <c r="Y65">
+        <v>123.1037</v>
+      </c>
+      <c r="AA65">
         <v>116.28498</v>
       </c>
-      <c r="V65">
+      <c r="AB65">
         <v>120.77161</v>
       </c>
-      <c r="W65">
+      <c r="AC65">
         <v>105.18419</v>
       </c>
     </row>
-    <row r="66" spans="5:23">
-      <c r="E66" s="9">
+    <row r="66" spans="5:29">
+      <c r="E66" s="6">
         <v>119.51746</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66">
         <v>117.21071999999999</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66">
         <v>101.18120999999999</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="7">
         <v>126.40352</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="6">
         <v>125.60715</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66">
         <v>120.37739999999999</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66">
         <v>126.64973000000001</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="7">
         <v>124.61853000000001</v>
       </c>
       <c r="N66">
-        <v>123.12522</v>
+        <v>118.29259999999999</v>
       </c>
       <c r="O66">
         <v>121.26953</v>
@@ -2481,51 +4568,69 @@
         <v>118.72154999999999</v>
       </c>
       <c r="Q66">
-        <v>121.73153000000001</v>
+        <v>119.23639</v>
       </c>
       <c r="R66">
-        <v>115.69922</v>
+        <v>109.7627</v>
       </c>
       <c r="S66">
         <v>120.75363</v>
       </c>
+      <c r="T66">
+        <v>116.75744</v>
+      </c>
       <c r="U66">
+        <v>119.35477</v>
+      </c>
+      <c r="V66">
+        <v>115.94005</v>
+      </c>
+      <c r="W66">
+        <v>118.73403</v>
+      </c>
+      <c r="X66">
+        <v>119.0307</v>
+      </c>
+      <c r="Y66">
+        <v>100.54018000000001</v>
+      </c>
+      <c r="AA66">
         <v>115.89033000000001</v>
       </c>
-      <c r="V66">
+      <c r="AB66">
         <v>122.46769</v>
       </c>
-      <c r="W66">
+      <c r="AC66">
         <v>106.56206</v>
       </c>
     </row>
-    <row r="67" spans="5:23">
-      <c r="E67" s="9">
+    <row r="67" spans="5:29">
+      <c r="E67" s="6">
         <v>118.34097</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67">
         <v>117.98179</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67">
         <v>98.050380000000004</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="7">
         <v>121.04656</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="6">
         <v>114.94074999999999</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67">
         <v>116.54743999999999</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K67">
         <v>121.08056000000001</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="7">
         <v>117.31323999999999</v>
       </c>
       <c r="N67">
-        <v>117.89499000000001</v>
+        <v>113.87035</v>
       </c>
       <c r="O67">
         <v>114.84936999999999</v>
@@ -2534,51 +4639,69 @@
         <v>115.58925000000001</v>
       </c>
       <c r="Q67">
-        <v>119.16211</v>
+        <v>114.46793</v>
       </c>
       <c r="R67">
-        <v>106.16218000000001</v>
+        <v>107.99048000000001</v>
       </c>
       <c r="S67">
         <v>116.22495000000001</v>
       </c>
+      <c r="T67">
+        <v>111.26957</v>
+      </c>
       <c r="U67">
+        <v>114.22020999999999</v>
+      </c>
+      <c r="V67">
+        <v>112.3814</v>
+      </c>
+      <c r="W67">
+        <v>115.07415</v>
+      </c>
+      <c r="X67">
+        <v>114.48927</v>
+      </c>
+      <c r="Y67">
+        <v>105.83347999999999</v>
+      </c>
+      <c r="AA67">
         <v>116.68872</v>
       </c>
-      <c r="V67">
+      <c r="AB67">
         <v>118.88378</v>
       </c>
-      <c r="W67">
+      <c r="AC67">
         <v>96.780320000000003</v>
       </c>
     </row>
-    <row r="68" spans="5:23">
-      <c r="E68" s="9">
+    <row r="68" spans="5:29">
+      <c r="E68" s="6">
         <v>110.02462</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68">
         <v>111.59583000000001</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68">
         <v>101.09584</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="7">
         <v>117.45493</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="6">
         <v>118.88714</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68">
         <v>116.32659</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68">
         <v>120.42846</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="7">
         <v>118.81372</v>
       </c>
       <c r="N68">
-        <v>118.35547</v>
+        <v>122.67757</v>
       </c>
       <c r="O68">
         <v>116.87217</v>
@@ -2587,51 +4710,69 @@
         <v>115.53874999999999</v>
       </c>
       <c r="Q68">
-        <v>118.55101999999999</v>
+        <v>121.93814</v>
       </c>
       <c r="R68">
-        <v>107.84706</v>
+        <v>114.72622</v>
       </c>
       <c r="S68">
         <v>117.03981</v>
       </c>
+      <c r="T68">
+        <v>122.01734</v>
+      </c>
       <c r="U68">
+        <v>122.37690000000001</v>
+      </c>
+      <c r="V68">
+        <v>120.85457</v>
+      </c>
+      <c r="W68">
+        <v>120.98862</v>
+      </c>
+      <c r="X68">
+        <v>122.08064</v>
+      </c>
+      <c r="Y68">
+        <v>105.38039000000001</v>
+      </c>
+      <c r="AA68">
         <v>107.18106</v>
       </c>
-      <c r="V68">
+      <c r="AB68">
         <v>115.78745000000001</v>
       </c>
-      <c r="W68">
+      <c r="AC68">
         <v>99.863479999999996</v>
       </c>
     </row>
-    <row r="69" spans="5:23">
-      <c r="E69" s="9">
+    <row r="69" spans="5:29">
+      <c r="E69" s="6">
         <v>111.22165</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69">
         <v>110.75269</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69">
         <v>97.324809999999999</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="7">
         <v>116.54664</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="6">
         <v>114.63194</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J69">
         <v>112.91844</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K69">
         <v>116.96281</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="7">
         <v>115.55982</v>
       </c>
       <c r="N69">
-        <v>114.19438</v>
+        <v>120.10769999999999</v>
       </c>
       <c r="O69">
         <v>113.03655999999999</v>
@@ -2640,51 +4781,69 @@
         <v>112.2529</v>
       </c>
       <c r="Q69">
-        <v>114.8152</v>
+        <v>119.48478</v>
       </c>
       <c r="R69">
-        <v>110.08502</v>
+        <v>107.89087000000001</v>
       </c>
       <c r="S69">
         <v>113.88854000000001</v>
       </c>
+      <c r="T69">
+        <v>118.55851</v>
+      </c>
       <c r="U69">
+        <v>119.47499000000001</v>
+      </c>
+      <c r="V69">
+        <v>118.56537</v>
+      </c>
+      <c r="W69">
+        <v>119.51998</v>
+      </c>
+      <c r="X69">
+        <v>118.50933999999999</v>
+      </c>
+      <c r="Y69">
+        <v>103.91529</v>
+      </c>
+      <c r="AA69">
         <v>110.36193</v>
       </c>
-      <c r="V69">
+      <c r="AB69">
         <v>115.11508000000001</v>
       </c>
-      <c r="W69">
+      <c r="AC69">
         <v>100.81762000000001</v>
       </c>
     </row>
-    <row r="70" spans="5:23">
-      <c r="E70" s="9">
+    <row r="70" spans="5:29">
+      <c r="E70" s="6">
         <v>116.88643</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70">
         <v>117.66553</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70">
         <v>100.30291</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="7">
         <v>127.10044000000001</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I70" s="6">
         <v>123.97253000000001</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J70">
         <v>124.78425</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70">
         <v>129.09121999999999</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="7">
         <v>124.60055</v>
       </c>
       <c r="N70">
-        <v>124.99279</v>
+        <v>114.59962</v>
       </c>
       <c r="O70">
         <v>121.75611000000001</v>
@@ -2693,51 +4852,69 @@
         <v>123.0522</v>
       </c>
       <c r="Q70">
-        <v>125.01652</v>
+        <v>116.83703</v>
       </c>
       <c r="R70">
-        <v>115.66167</v>
+        <v>106.56278</v>
       </c>
       <c r="S70">
         <v>121.99621</v>
       </c>
+      <c r="T70">
+        <v>117.30795999999999</v>
+      </c>
       <c r="U70">
+        <v>116.70506</v>
+      </c>
+      <c r="V70">
+        <v>115.64484</v>
+      </c>
+      <c r="W70">
+        <v>116.7595</v>
+      </c>
+      <c r="X70">
+        <v>116.16772</v>
+      </c>
+      <c r="Y70">
+        <v>104.68082</v>
+      </c>
+      <c r="AA70">
         <v>114.59254</v>
       </c>
-      <c r="V70">
+      <c r="AB70">
         <v>123.51560000000001</v>
       </c>
-      <c r="W70">
+      <c r="AC70">
         <v>109.6619</v>
       </c>
     </row>
-    <row r="71" spans="5:23">
-      <c r="E71" s="9">
+    <row r="71" spans="5:29">
+      <c r="E71" s="6">
         <v>116.24431</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71">
         <v>112.15917</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71">
         <v>89.717799999999997</v>
       </c>
-      <c r="H71" s="11">
+      <c r="H71" s="7">
         <v>116.60711999999999</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I71" s="6">
         <v>119.66116</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71">
         <v>116.26635</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71">
         <v>120.61754000000001</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71" s="7">
         <v>120.54644</v>
       </c>
       <c r="N71">
-        <v>119.73237</v>
+        <v>118.99225</v>
       </c>
       <c r="O71">
         <v>118.9948</v>
@@ -2746,51 +4923,69 @@
         <v>115.32877000000001</v>
       </c>
       <c r="Q71">
-        <v>119.61196</v>
+        <v>119.21528000000001</v>
       </c>
       <c r="R71">
-        <v>110.29255999999999</v>
+        <v>107.2657</v>
       </c>
       <c r="S71">
         <v>119.4992</v>
       </c>
+      <c r="T71">
+        <v>116.39447</v>
+      </c>
       <c r="U71">
+        <v>116.7812</v>
+      </c>
+      <c r="V71">
+        <v>116.59012</v>
+      </c>
+      <c r="W71">
+        <v>118.33229</v>
+      </c>
+      <c r="X71">
+        <v>118.39071</v>
+      </c>
+      <c r="Y71">
+        <v>106.45031</v>
+      </c>
+      <c r="AA71">
         <v>115.91119999999999</v>
       </c>
-      <c r="V71">
+      <c r="AB71">
         <v>115.12271</v>
       </c>
-      <c r="W71">
+      <c r="AC71">
         <v>101.5689</v>
       </c>
     </row>
-    <row r="72" spans="5:23">
-      <c r="E72" s="9">
+    <row r="72" spans="5:29">
+      <c r="E72" s="6">
         <v>111.83557999999999</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72">
         <v>109.56829999999999</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72">
         <v>86.439210000000003</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="7">
         <v>116.95878</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="6">
         <v>113.92377999999999</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J72">
         <v>116.00282</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72">
         <v>120.55063</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="7">
         <v>115.60854</v>
       </c>
       <c r="N72">
-        <v>119.06967</v>
+        <v>116.45166999999999</v>
       </c>
       <c r="O72">
         <v>115.05679000000001</v>
@@ -2799,51 +4994,69 @@
         <v>116.58887</v>
       </c>
       <c r="Q72">
-        <v>120.06511999999999</v>
+        <v>115.32534</v>
       </c>
       <c r="R72">
-        <v>109.01976999999999</v>
+        <v>104.83391</v>
       </c>
       <c r="S72">
         <v>116.50493</v>
       </c>
+      <c r="T72">
+        <v>114.46341</v>
+      </c>
       <c r="U72">
+        <v>114.97136999999999</v>
+      </c>
+      <c r="V72">
+        <v>115.33795000000001</v>
+      </c>
+      <c r="W72">
+        <v>115.02432</v>
+      </c>
+      <c r="X72">
+        <v>116.71981</v>
+      </c>
+      <c r="Y72">
+        <v>107.15734999999999</v>
+      </c>
+      <c r="AA72">
         <v>111.57351</v>
       </c>
-      <c r="V72">
+      <c r="AB72">
         <v>117.31341</v>
       </c>
-      <c r="W72">
+      <c r="AC72">
         <v>105.37050000000001</v>
       </c>
     </row>
-    <row r="73" spans="5:23">
-      <c r="E73" s="9">
+    <row r="73" spans="5:29">
+      <c r="E73" s="6">
         <v>112.38346</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73">
         <v>117.40161999999999</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73">
         <v>91.658799999999999</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="7">
         <v>116.15253</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="6">
         <v>118.69228</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J73">
         <v>115.9152</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K73">
         <v>119.68607</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L73" s="7">
         <v>117.33835999999999</v>
       </c>
       <c r="N73">
-        <v>115.78943</v>
+        <v>120.57398999999999</v>
       </c>
       <c r="O73">
         <v>116.30191000000001</v>
@@ -2852,134 +5065,1612 @@
         <v>113.67668</v>
       </c>
       <c r="Q73">
-        <v>116.56921</v>
+        <v>120.39803999999999</v>
       </c>
       <c r="R73">
-        <v>103.39995999999999</v>
+        <v>109.58239</v>
       </c>
       <c r="S73">
         <v>114.81149000000001</v>
       </c>
+      <c r="T73">
+        <v>118.48336999999999</v>
+      </c>
       <c r="U73">
+        <v>119.47788</v>
+      </c>
+      <c r="V73">
+        <v>116.85896</v>
+      </c>
+      <c r="W73">
+        <v>119.76898</v>
+      </c>
+      <c r="X73">
+        <v>118.97947000000001</v>
+      </c>
+      <c r="Y73">
+        <v>101.39324999999999</v>
+      </c>
+      <c r="AA73">
         <v>108.96459</v>
       </c>
-      <c r="V73">
+      <c r="AB73">
         <v>114.0796</v>
       </c>
-      <c r="W73">
+      <c r="AC73">
         <v>90.70711</v>
       </c>
     </row>
-    <row r="74" spans="5:23" ht="15.75" thickBot="1">
-      <c r="E74" s="12">
-        <f>AVERAGE(E64:E73)</f>
+    <row r="74" spans="5:29" ht="15" thickBot="1">
+      <c r="E74" s="8">
+        <f t="shared" ref="E74:L74" si="1">AVERAGE(E64:E73)</f>
         <v>115.654302</v>
       </c>
-      <c r="F74" s="13">
-        <f>AVERAGE(F64:F73)</f>
+      <c r="F74" s="9">
+        <f t="shared" si="1"/>
         <v>115.33939500000001</v>
       </c>
-      <c r="G74" s="13">
-        <f>AVERAGE(G64:G73)</f>
+      <c r="G74" s="9">
+        <f t="shared" si="1"/>
         <v>97.75125899999999</v>
       </c>
-      <c r="H74" s="14">
-        <f>AVERAGE(H64:H73)</f>
+      <c r="H74" s="10">
+        <f t="shared" si="1"/>
         <v>120.64322600000003</v>
       </c>
-      <c r="I74" s="12">
-        <f>AVERAGE(I64:I73)</f>
+      <c r="I74" s="8">
+        <f t="shared" si="1"/>
         <v>119.69425799999999</v>
       </c>
-      <c r="J74" s="13">
-        <f>AVERAGE(J64:J73)</f>
+      <c r="J74" s="9">
+        <f t="shared" si="1"/>
         <v>118.34632399999998</v>
       </c>
-      <c r="K74" s="13">
-        <f>AVERAGE(K64:K73)</f>
+      <c r="K74" s="9">
+        <f t="shared" si="1"/>
         <v>122.50295999999999</v>
       </c>
-      <c r="L74" s="14">
-        <f>AVERAGE(L64:L73)</f>
+      <c r="L74" s="10">
+        <f t="shared" si="1"/>
         <v>120.04021900000001</v>
       </c>
       <c r="N74" s="1">
-        <f>AVERAGE(N64:N73)</f>
-        <v>119.80832900000003</v>
+        <f t="shared" ref="N74:Y74" si="2">AVERAGE(N64:N73)</f>
+        <v>119.439274</v>
       </c>
       <c r="O74" s="1">
-        <f>AVERAGE(O64:O73)</f>
+        <f t="shared" si="2"/>
         <v>118.01972900000001</v>
       </c>
       <c r="P74" s="1">
-        <f>AVERAGE(P64:P73)</f>
+        <f t="shared" si="2"/>
         <v>117.22444399999999</v>
       </c>
       <c r="Q74" s="1">
-        <f>AVERAGE(Q64:Q73)</f>
-        <v>120.012732</v>
+        <f t="shared" si="2"/>
+        <v>119.46188300000001</v>
       </c>
       <c r="R74" s="1">
-        <f>AVERAGE(R64:R73)</f>
-        <v>109.765807</v>
+        <f t="shared" si="2"/>
+        <v>109.57499199999999</v>
       </c>
       <c r="S74" s="1">
-        <f>AVERAGE(S64:S73)</f>
+        <f t="shared" si="2"/>
         <v>118.285617</v>
       </c>
+      <c r="T74" s="1">
+        <f t="shared" si="2"/>
+        <v>117.491997</v>
+      </c>
       <c r="U74" s="1">
-        <f>AVERAGE(U64:U73)</f>
+        <f t="shared" si="2"/>
+        <v>119.100343</v>
+      </c>
+      <c r="V74" s="1">
+        <f t="shared" si="2"/>
+        <v>117.155565</v>
+      </c>
+      <c r="W74" s="1">
+        <f t="shared" si="2"/>
+        <v>119.27459500000001</v>
+      </c>
+      <c r="X74" s="1">
+        <f t="shared" si="2"/>
+        <v>119.047471</v>
+      </c>
+      <c r="Y74" s="1">
+        <f t="shared" si="2"/>
+        <v>106.37270300000003</v>
+      </c>
+      <c r="AA74" s="1">
+        <f>AVERAGE(AA64:AA73)</f>
         <v>113.87092600000001</v>
       </c>
-      <c r="V74" s="1">
-        <f>AVERAGE(V64:V73)</f>
+      <c r="AB74" s="1">
+        <f>AVERAGE(AB64:AB73)</f>
         <v>118.39614400000002</v>
       </c>
-      <c r="W74" s="1">
-        <f>AVERAGE(W64:W73)</f>
+      <c r="AC74" s="1">
+        <f>AVERAGE(AC64:AC73)</f>
         <v>102.592128</v>
       </c>
     </row>
-    <row r="78" spans="5:23">
+    <row r="77" spans="5:29">
+      <c r="R77" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+    </row>
+    <row r="78" spans="5:29">
       <c r="F78" t="s">
         <v>44</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="5:23">
+      <c r="Q78" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+    </row>
+    <row r="79" spans="5:29">
       <c r="F79" t="s">
         <v>46</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="5:23">
+    <row r="80" spans="5:29">
       <c r="F80" t="s">
         <v>49</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="81" spans="6:7">
+      <c r="N80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="X80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z80" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="6:31">
       <c r="F81" t="s">
         <v>54</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="14" t="s">
         <v>56</v>
       </c>
+      <c r="N81">
+        <v>110.79352</v>
+      </c>
+      <c r="O81">
+        <v>97.315190000000001</v>
+      </c>
+      <c r="P81">
+        <v>111.63758</v>
+      </c>
+      <c r="Q81">
+        <v>111.63758</v>
+      </c>
+      <c r="R81">
+        <v>97.913579999999996</v>
+      </c>
+      <c r="U81">
+        <v>108.43866</v>
+      </c>
+      <c r="V81">
+        <v>110.54344</v>
+      </c>
+      <c r="W81">
+        <v>111.39249</v>
+      </c>
+      <c r="X81">
+        <v>110.32361</v>
+      </c>
+      <c r="Y81">
+        <v>113.2863</v>
+      </c>
+      <c r="Z81">
+        <v>112.27378</v>
+      </c>
+    </row>
+    <row r="82" spans="6:31">
+      <c r="F82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N82">
+        <v>124.67688</v>
+      </c>
+      <c r="O82">
+        <v>110.78896</v>
+      </c>
+      <c r="P82">
+        <v>125.72678000000001</v>
+      </c>
+      <c r="Q82">
+        <v>125.72678000000001</v>
+      </c>
+      <c r="R82">
+        <v>106.28122</v>
+      </c>
+      <c r="U82">
+        <v>120.01966</v>
+      </c>
+      <c r="V82">
+        <v>125.31531</v>
+      </c>
+      <c r="W82">
+        <v>124.91963</v>
+      </c>
+      <c r="X82">
+        <v>124.88667</v>
+      </c>
+      <c r="Y82">
+        <v>124.81428</v>
+      </c>
+      <c r="Z82">
+        <v>124.86456</v>
+      </c>
+    </row>
+    <row r="83" spans="6:31">
+      <c r="F83" t="s">
+        <v>72</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N83">
+        <v>111.83214</v>
+      </c>
+      <c r="O83">
+        <v>100.87958</v>
+      </c>
+      <c r="P83">
+        <v>113.98415</v>
+      </c>
+      <c r="Q83">
+        <v>113.98415</v>
+      </c>
+      <c r="R83">
+        <v>101.15918000000001</v>
+      </c>
+      <c r="U83">
+        <v>109.93171</v>
+      </c>
+      <c r="V83">
+        <v>114.82154</v>
+      </c>
+      <c r="W83">
+        <v>113.77172</v>
+      </c>
+      <c r="X83">
+        <v>114.47508000000001</v>
+      </c>
+      <c r="Y83">
+        <v>114.01647</v>
+      </c>
+      <c r="Z83">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:31">
+      <c r="F84" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="N84">
+        <v>112.01264999999999</v>
+      </c>
+      <c r="O84">
+        <v>98.022829999999999</v>
+      </c>
+      <c r="P84">
+        <v>111.74647</v>
+      </c>
+      <c r="Q84">
+        <v>111.74647</v>
+      </c>
+      <c r="R84">
+        <v>96.252759999999995</v>
+      </c>
+      <c r="U84">
+        <v>105.40385000000001</v>
+      </c>
+      <c r="V84">
+        <v>109.02472</v>
+      </c>
+      <c r="W84">
+        <v>108.32599</v>
+      </c>
+      <c r="X84">
+        <v>107.79908</v>
+      </c>
+      <c r="Y84">
+        <v>109.25048</v>
+      </c>
+      <c r="Z84">
+        <v>110.1799</v>
+      </c>
+    </row>
+    <row r="85" spans="6:31">
+      <c r="F85" t="s">
+        <v>86</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N85">
+        <v>117.49892</v>
+      </c>
+      <c r="O85">
+        <v>103.63432</v>
+      </c>
+      <c r="P85">
+        <v>117.60578</v>
+      </c>
+      <c r="Q85">
+        <v>117.60578</v>
+      </c>
+      <c r="R85">
+        <v>95.878720000000001</v>
+      </c>
+      <c r="U85">
+        <v>110.82079</v>
+      </c>
+      <c r="V85">
+        <v>116.0735</v>
+      </c>
+      <c r="W85">
+        <v>115.70907</v>
+      </c>
+      <c r="X85">
+        <v>116.20541</v>
+      </c>
+      <c r="Y85">
+        <v>116.5172</v>
+      </c>
+      <c r="Z85">
+        <v>116.29461999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="6:31">
+      <c r="F86" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N86">
+        <v>115.83107</v>
+      </c>
+      <c r="O86">
+        <v>102.90513</v>
+      </c>
+      <c r="P86">
+        <v>115.51873000000001</v>
+      </c>
+      <c r="Q86">
+        <v>115.37012</v>
+      </c>
+      <c r="R86">
+        <v>97.095690000000005</v>
+      </c>
+      <c r="U86">
+        <v>109.94318</v>
+      </c>
+      <c r="V86">
+        <v>116.1474</v>
+      </c>
+      <c r="W86">
+        <v>115.49168</v>
+      </c>
+      <c r="X86">
+        <v>115.6648</v>
+      </c>
+      <c r="Y86">
+        <v>115.98134</v>
+      </c>
+      <c r="Z86">
+        <v>115.97346</v>
+      </c>
+    </row>
+    <row r="87" spans="6:31">
+      <c r="F87" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N87">
+        <v>111.68304999999999</v>
+      </c>
+      <c r="O87">
+        <v>100.92443</v>
+      </c>
+      <c r="P87">
+        <v>112.55176</v>
+      </c>
+      <c r="Q87">
+        <v>112.55176</v>
+      </c>
+      <c r="R87">
+        <v>100.13245000000001</v>
+      </c>
+      <c r="U87">
+        <v>110.31437</v>
+      </c>
+      <c r="V87">
+        <v>113.32991</v>
+      </c>
+      <c r="W87">
+        <v>112.65755</v>
+      </c>
+      <c r="X87">
+        <v>112.80876000000001</v>
+      </c>
+      <c r="Y87">
+        <v>112.34054999999999</v>
+      </c>
+      <c r="Z87">
+        <v>111.95777</v>
+      </c>
+    </row>
+    <row r="88" spans="6:31">
+      <c r="F88" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N88">
+        <v>114.09113000000001</v>
+      </c>
+      <c r="O88">
+        <v>103.32995</v>
+      </c>
+      <c r="P88">
+        <v>114.92515</v>
+      </c>
+      <c r="Q88">
+        <v>112.76746</v>
+      </c>
+      <c r="R88">
+        <v>96.936409999999995</v>
+      </c>
+      <c r="U88">
+        <v>109.96688</v>
+      </c>
+      <c r="V88">
+        <v>113.13945</v>
+      </c>
+      <c r="W88">
+        <v>112.68980999999999</v>
+      </c>
+      <c r="X88">
+        <v>112.96272999999999</v>
+      </c>
+      <c r="Y88">
+        <v>112.72821999999999</v>
+      </c>
+      <c r="Z88">
+        <v>113.71234</v>
+      </c>
+    </row>
+    <row r="89" spans="6:31">
+      <c r="F89" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N89">
+        <v>115.23708999999999</v>
+      </c>
+      <c r="O89">
+        <v>101.95416</v>
+      </c>
+      <c r="P89">
+        <v>114.42333000000001</v>
+      </c>
+      <c r="Q89">
+        <v>114.42333000000001</v>
+      </c>
+      <c r="R89">
+        <v>101.49678</v>
+      </c>
+      <c r="U89">
+        <v>110.41493</v>
+      </c>
+      <c r="V89">
+        <v>114.44540000000001</v>
+      </c>
+      <c r="W89">
+        <v>114.13379</v>
+      </c>
+      <c r="X89">
+        <v>115.1461</v>
+      </c>
+      <c r="Y89">
+        <v>114.20093</v>
+      </c>
+      <c r="Z89">
+        <v>113.78646999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="6:31">
+      <c r="N90">
+        <v>114.74839</v>
+      </c>
+      <c r="O90">
+        <v>100.07102</v>
+      </c>
+      <c r="P90">
+        <v>114.97515</v>
+      </c>
+      <c r="Q90">
+        <v>114.97515</v>
+      </c>
+      <c r="R90">
+        <v>100.30002</v>
+      </c>
+      <c r="U90">
+        <v>111.88582</v>
+      </c>
+      <c r="V90">
+        <v>112.56573</v>
+      </c>
+      <c r="W90">
+        <v>112.70471000000001</v>
+      </c>
+      <c r="X90">
+        <v>111.55643000000001</v>
+      </c>
+      <c r="Y90">
+        <v>114.28265</v>
+      </c>
+      <c r="Z90">
+        <v>114.6015</v>
+      </c>
+    </row>
+    <row r="91" spans="6:31">
+      <c r="F91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N91" s="1">
+        <f>AVERAGE(N81:N90)</f>
+        <v>114.84048399999999</v>
+      </c>
+      <c r="O91" s="1">
+        <f>AVERAGE(O81:O90)</f>
+        <v>101.98255700000001</v>
+      </c>
+      <c r="P91" s="1">
+        <f>AVERAGE(P81:P90)</f>
+        <v>115.30948800000002</v>
+      </c>
+      <c r="Q91" s="1">
+        <f>AVERAGE(Q81:Q90)</f>
+        <v>115.07885800000001</v>
+      </c>
+      <c r="R91" s="1">
+        <f>AVERAGE(R81:R90)</f>
+        <v>99.344681000000008</v>
+      </c>
+      <c r="U91" s="1">
+        <f t="shared" ref="U91:Z91" si="3">AVERAGE(U81:U90)</f>
+        <v>110.71398500000001</v>
+      </c>
+      <c r="V91" s="1">
+        <f t="shared" si="3"/>
+        <v>114.54064000000001</v>
+      </c>
+      <c r="W91" s="1">
+        <f t="shared" si="3"/>
+        <v>114.17964399999998</v>
+      </c>
+      <c r="X91" s="1">
+        <f t="shared" si="3"/>
+        <v>114.18286700000002</v>
+      </c>
+      <c r="Y91" s="1">
+        <f t="shared" si="3"/>
+        <v>114.74184200000002</v>
+      </c>
+      <c r="Z91" s="1">
+        <f t="shared" si="3"/>
+        <v>114.77444</v>
+      </c>
+    </row>
+    <row r="92" spans="6:31">
+      <c r="G92" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="6:31">
+      <c r="G93" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="6:31">
+      <c r="G94" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="R94" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+    </row>
+    <row r="95" spans="6:31">
+      <c r="G95" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q95" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+    </row>
+    <row r="96" spans="6:31">
+      <c r="G96" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R96" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U96" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V96" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W96" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="X96" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA96" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB96" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC96" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD96" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE96" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="6:32">
+      <c r="G97" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O97">
+        <v>118.29262</v>
+      </c>
+      <c r="P97">
+        <v>115.86465</v>
+      </c>
+      <c r="Q97">
+        <v>100.41458</v>
+      </c>
+      <c r="R97">
+        <v>102.34688</v>
+      </c>
+      <c r="S97">
+        <v>119.63993000000001</v>
+      </c>
+      <c r="T97">
+        <v>120.14111</v>
+      </c>
+      <c r="U97">
+        <v>114.96398000000001</v>
+      </c>
+      <c r="V97">
+        <v>118.11617</v>
+      </c>
+      <c r="W97">
+        <v>117.36579999999999</v>
+      </c>
+      <c r="X97">
+        <v>117.80298000000001</v>
+      </c>
+      <c r="Y97">
+        <v>107.68545</v>
+      </c>
+      <c r="Z97">
+        <v>107.68545</v>
+      </c>
+      <c r="AA97">
+        <v>104.53363</v>
+      </c>
+      <c r="AB97">
+        <v>108.63562</v>
+      </c>
+      <c r="AC97">
+        <v>114.58114</v>
+      </c>
+      <c r="AD97">
+        <v>117.89666</v>
+      </c>
+      <c r="AE97">
+        <v>109.30896</v>
+      </c>
+    </row>
+    <row r="98" spans="6:32">
+      <c r="G98" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O98">
+        <v>127.19616000000001</v>
+      </c>
+      <c r="P98">
+        <v>128.27831</v>
+      </c>
+      <c r="Q98">
+        <v>115.94316000000001</v>
+      </c>
+      <c r="R98">
+        <v>107.78273</v>
+      </c>
+      <c r="S98">
+        <v>128.48846</v>
+      </c>
+      <c r="T98">
+        <v>129.9066</v>
+      </c>
+      <c r="U98">
+        <v>123.95882</v>
+      </c>
+      <c r="V98">
+        <v>128.58662000000001</v>
+      </c>
+      <c r="W98">
+        <v>129.07069999999999</v>
+      </c>
+      <c r="X98">
+        <v>129.03827000000001</v>
+      </c>
+      <c r="Y98">
+        <v>119.94931</v>
+      </c>
+      <c r="Z98">
+        <v>120.08713</v>
+      </c>
+      <c r="AA98">
+        <v>120.12604</v>
+      </c>
+      <c r="AB98">
+        <v>114.42083</v>
+      </c>
+      <c r="AC98">
+        <v>125.66397000000001</v>
+      </c>
+      <c r="AD98">
+        <v>128.48021</v>
+      </c>
+      <c r="AE98">
+        <v>122.33154999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="6:32">
+      <c r="O99">
+        <v>114.64821999999999</v>
+      </c>
+      <c r="P99">
+        <v>114.11178</v>
+      </c>
+      <c r="Q99">
+        <v>100.35542</v>
+      </c>
+      <c r="R99">
+        <v>99.185919999999996</v>
+      </c>
+      <c r="S99">
+        <v>115.83465</v>
+      </c>
+      <c r="T99">
+        <v>117.43566</v>
+      </c>
+      <c r="U99">
+        <v>114.60138000000001</v>
+      </c>
+      <c r="V99">
+        <v>116.54402</v>
+      </c>
+      <c r="W99">
+        <v>116.31707</v>
+      </c>
+      <c r="X99">
+        <v>115.04964</v>
+      </c>
+      <c r="Y99">
+        <v>107.93859</v>
+      </c>
+      <c r="Z99">
+        <v>107.01718</v>
+      </c>
+      <c r="AA99">
+        <v>105.91754</v>
+      </c>
+      <c r="AB99">
+        <v>110.16858000000001</v>
+      </c>
+      <c r="AC99">
+        <v>114.41551</v>
+      </c>
+      <c r="AD99">
+        <v>116.93217</v>
+      </c>
+      <c r="AE99">
+        <v>114.43013999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="6:32">
+      <c r="O100">
+        <v>114.5561</v>
+      </c>
+      <c r="P100">
+        <v>113.07633</v>
+      </c>
+      <c r="Q100">
+        <v>94.477469999999997</v>
+      </c>
+      <c r="R100">
+        <v>99.875649999999993</v>
+      </c>
+      <c r="S100">
+        <v>115.20518</v>
+      </c>
+      <c r="T100">
+        <v>116.50346</v>
+      </c>
+      <c r="U100">
+        <v>110.79174999999999</v>
+      </c>
+      <c r="V100">
+        <v>114.4062</v>
+      </c>
+      <c r="W100">
+        <v>114.80665999999999</v>
+      </c>
+      <c r="X100">
+        <v>110.8075</v>
+      </c>
+      <c r="Y100">
+        <v>100.47326</v>
+      </c>
+      <c r="Z100">
+        <v>100.5167</v>
+      </c>
+      <c r="AA100">
+        <v>100.15358999999999</v>
+      </c>
+      <c r="AB100">
+        <v>99.737489999999994</v>
+      </c>
+      <c r="AC100">
+        <v>112.64803999999999</v>
+      </c>
+      <c r="AD100">
+        <v>113.09491</v>
+      </c>
+      <c r="AE100">
+        <v>108.55171</v>
+      </c>
+    </row>
+    <row r="101" spans="6:32">
+      <c r="F101" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O101">
+        <v>122.78883</v>
+      </c>
+      <c r="P101">
+        <v>122.20307</v>
+      </c>
+      <c r="Q101">
+        <v>105.43038</v>
+      </c>
+      <c r="R101">
+        <v>101.70871</v>
+      </c>
+      <c r="S101">
+        <v>123.88030999999999</v>
+      </c>
+      <c r="T101">
+        <v>123.87730999999999</v>
+      </c>
+      <c r="U101">
+        <v>120.46468</v>
+      </c>
+      <c r="V101">
+        <v>121.35536999999999</v>
+      </c>
+      <c r="W101">
+        <v>120.63073</v>
+      </c>
+      <c r="X101">
+        <v>121.33772999999999</v>
+      </c>
+      <c r="Y101">
+        <v>109.85465000000001</v>
+      </c>
+      <c r="Z101">
+        <v>109.90537</v>
+      </c>
+      <c r="AA101">
+        <v>106.566</v>
+      </c>
+      <c r="AB101">
+        <v>105.59139</v>
+      </c>
+      <c r="AC101">
+        <v>120.17094</v>
+      </c>
+      <c r="AD101">
+        <v>121.17183</v>
+      </c>
+      <c r="AE101">
+        <v>115.33329999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="6:32">
+      <c r="G102" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O102">
+        <v>114.01879</v>
+      </c>
+      <c r="P102">
+        <v>117.00348</v>
+      </c>
+      <c r="Q102">
+        <v>96.150379999999998</v>
+      </c>
+      <c r="R102">
+        <v>98.626660000000001</v>
+      </c>
+      <c r="S102">
+        <v>118.04436</v>
+      </c>
+      <c r="T102">
+        <v>117.64581</v>
+      </c>
+      <c r="U102">
+        <v>113.24409</v>
+      </c>
+      <c r="V102">
+        <v>115.87403999999999</v>
+      </c>
+      <c r="W102">
+        <v>115.51106</v>
+      </c>
+      <c r="X102">
+        <v>113.4054</v>
+      </c>
+      <c r="Y102">
+        <v>105.37363999999999</v>
+      </c>
+      <c r="Z102">
+        <v>106.0097</v>
+      </c>
+      <c r="AA102">
+        <v>102.43165</v>
+      </c>
+      <c r="AB102">
+        <v>109.38991</v>
+      </c>
+      <c r="AC102">
+        <v>113.63249</v>
+      </c>
+      <c r="AD102">
+        <v>114.97396000000001</v>
+      </c>
+      <c r="AE102">
+        <v>111.68777</v>
+      </c>
+    </row>
+    <row r="103" spans="6:32">
+      <c r="G103" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O103">
+        <v>115.46952</v>
+      </c>
+      <c r="P103">
+        <v>112.14952</v>
+      </c>
+      <c r="Q103">
+        <v>100.74247</v>
+      </c>
+      <c r="R103">
+        <v>97.635199999999998</v>
+      </c>
+      <c r="S103">
+        <v>115.86118</v>
+      </c>
+      <c r="T103">
+        <v>116.64516</v>
+      </c>
+      <c r="U103">
+        <v>113.492</v>
+      </c>
+      <c r="V103">
+        <v>115.50642999999999</v>
+      </c>
+      <c r="W103">
+        <v>114.84545</v>
+      </c>
+      <c r="X103">
+        <v>113.84448999999999</v>
+      </c>
+      <c r="Y103">
+        <v>109.83884</v>
+      </c>
+      <c r="Z103">
+        <v>108.15188000000001</v>
+      </c>
+      <c r="AA103">
+        <v>108.9002</v>
+      </c>
+      <c r="AB103">
+        <v>103.40925</v>
+      </c>
+      <c r="AC103">
+        <v>110.80031</v>
+      </c>
+      <c r="AD103">
+        <v>114.05853</v>
+      </c>
+      <c r="AE103">
+        <v>110.93398999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="6:32">
+      <c r="G104" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O104">
+        <v>118.16457</v>
+      </c>
+      <c r="P104">
+        <v>119.11518</v>
+      </c>
+      <c r="Q104">
+        <v>103.51188</v>
+      </c>
+      <c r="R104">
+        <v>99.006640000000004</v>
+      </c>
+      <c r="S104">
+        <v>119.89115</v>
+      </c>
+      <c r="T104">
+        <v>120.14097</v>
+      </c>
+      <c r="U104">
+        <v>115.19459000000001</v>
+      </c>
+      <c r="V104">
+        <v>118.8681</v>
+      </c>
+      <c r="W104">
+        <v>119.43583</v>
+      </c>
+      <c r="X104">
+        <v>118.32362999999999</v>
+      </c>
+      <c r="Y104">
+        <v>113.73193999999999</v>
+      </c>
+      <c r="Z104">
+        <v>113.4511</v>
+      </c>
+      <c r="AA104">
+        <v>109.60391</v>
+      </c>
+      <c r="AB104">
+        <v>108.44087</v>
+      </c>
+      <c r="AC104">
+        <v>114.71847</v>
+      </c>
+      <c r="AD104">
+        <v>117.95962</v>
+      </c>
+      <c r="AE104">
+        <v>109.47632</v>
+      </c>
+    </row>
+    <row r="105" spans="6:32">
+      <c r="G105" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O105">
+        <v>115.99418</v>
+      </c>
+      <c r="P105">
+        <v>115.44410999999999</v>
+      </c>
+      <c r="Q105">
+        <v>99.702070000000006</v>
+      </c>
+      <c r="R105">
+        <v>98.609430000000003</v>
+      </c>
+      <c r="S105">
+        <v>117.39203000000001</v>
+      </c>
+      <c r="T105">
+        <v>117.19956999999999</v>
+      </c>
+      <c r="U105">
+        <v>114.16785</v>
+      </c>
+      <c r="V105">
+        <v>115.33384</v>
+      </c>
+      <c r="W105">
+        <v>115.61754999999999</v>
+      </c>
+      <c r="X105">
+        <v>115.46313000000001</v>
+      </c>
+      <c r="Y105">
+        <v>104.13583</v>
+      </c>
+      <c r="Z105">
+        <v>102.87972000000001</v>
+      </c>
+      <c r="AA105">
+        <v>101.69732</v>
+      </c>
+      <c r="AB105">
+        <v>105.71422</v>
+      </c>
+      <c r="AC105">
+        <v>115.16726</v>
+      </c>
+      <c r="AD105">
+        <v>115.89136000000001</v>
+      </c>
+      <c r="AE105">
+        <v>114.99091</v>
+      </c>
+    </row>
+    <row r="106" spans="6:32">
+      <c r="G106" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O106">
+        <v>116.97016000000001</v>
+      </c>
+      <c r="P106">
+        <v>119.06251</v>
+      </c>
+      <c r="Q106">
+        <v>104.18991</v>
+      </c>
+      <c r="R106">
+        <v>96.918480000000002</v>
+      </c>
+      <c r="S106">
+        <v>118.0012</v>
+      </c>
+      <c r="T106">
+        <v>119.92994</v>
+      </c>
+      <c r="U106">
+        <v>109.52625</v>
+      </c>
+      <c r="V106">
+        <v>117.77148</v>
+      </c>
+      <c r="W106">
+        <v>117.14239000000001</v>
+      </c>
+      <c r="X106">
+        <v>116.97378999999999</v>
+      </c>
+      <c r="Y106">
+        <v>108.51654000000001</v>
+      </c>
+      <c r="Z106">
+        <v>104.65676000000001</v>
+      </c>
+      <c r="AA106">
+        <v>100.5544</v>
+      </c>
+      <c r="AB106">
+        <v>105.35496000000001</v>
+      </c>
+      <c r="AC106">
+        <v>108.01031</v>
+      </c>
+      <c r="AD106">
+        <v>116.1369</v>
+      </c>
+      <c r="AE106">
+        <v>108.06916</v>
+      </c>
+    </row>
+    <row r="107" spans="6:32">
+      <c r="G107" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="O107" s="1">
+        <f t="shared" ref="O107:AE107" si="4">AVERAGE(O97:O106)</f>
+        <v>117.809915</v>
+      </c>
+      <c r="P107" s="1">
+        <f t="shared" si="4"/>
+        <v>117.63089399999998</v>
+      </c>
+      <c r="Q107" s="1">
+        <f t="shared" si="4"/>
+        <v>102.09177200000002</v>
+      </c>
+      <c r="R107" s="1">
+        <f t="shared" si="4"/>
+        <v>100.16963000000001</v>
+      </c>
+      <c r="S107" s="1">
+        <f t="shared" si="4"/>
+        <v>119.22384500000001</v>
+      </c>
+      <c r="T107" s="1">
+        <f t="shared" si="4"/>
+        <v>119.942559</v>
+      </c>
+      <c r="U107" s="1">
+        <f t="shared" si="4"/>
+        <v>115.040539</v>
+      </c>
+      <c r="V107" s="1">
+        <f t="shared" si="4"/>
+        <v>118.23622700000001</v>
+      </c>
+      <c r="W107" s="1">
+        <f t="shared" si="4"/>
+        <v>118.074324</v>
+      </c>
+      <c r="X107" s="1">
+        <f t="shared" si="4"/>
+        <v>117.204656</v>
+      </c>
+      <c r="Y107" s="1">
+        <f t="shared" si="4"/>
+        <v>108.74980500000001</v>
+      </c>
+      <c r="Z107" s="1">
+        <f t="shared" si="4"/>
+        <v>108.03609899999999</v>
+      </c>
+      <c r="AA107" s="1">
+        <f t="shared" si="4"/>
+        <v>106.04842800000002</v>
+      </c>
+      <c r="AB107" s="1">
+        <f t="shared" si="4"/>
+        <v>107.08631199999999</v>
+      </c>
+      <c r="AC107" s="1">
+        <f t="shared" si="4"/>
+        <v>114.98084399999998</v>
+      </c>
+      <c r="AD107" s="1">
+        <f t="shared" si="4"/>
+        <v>117.659615</v>
+      </c>
+      <c r="AE107" s="1">
+        <f t="shared" si="4"/>
+        <v>112.51138099999999</v>
+      </c>
+      <c r="AF107" s="1"/>
+    </row>
+    <row r="108" spans="6:32">
+      <c r="G108" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V108" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD108" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="6:32">
+      <c r="F110" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="6:32">
+      <c r="G111" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="6:32">
+      <c r="G112" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7">
+      <c r="G113" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7">
+      <c r="G114" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7">
+      <c r="G115" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7">
+      <c r="G116" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7">
+      <c r="G117" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7">
+      <c r="F119" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7">
+      <c r="G120" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7">
+      <c r="G121" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7">
+      <c r="G122" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7">
+      <c r="G123" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7">
+      <c r="G124" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7">
+      <c r="F126" t="s">
+        <v>82</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7">
+      <c r="G127" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7">
+      <c r="G128" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7">
+      <c r="G129" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7">
+      <c r="G130" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7">
+      <c r="G131" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7">
+      <c r="G132" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7">
+      <c r="G133" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7">
+      <c r="F135" t="s">
+        <v>86</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7">
+      <c r="G136" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7">
+      <c r="G137" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7">
+      <c r="G138" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7">
+      <c r="G139" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7">
+      <c r="G140" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7">
+      <c r="G141" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7">
+      <c r="G142" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7">
+      <c r="F144" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7">
+      <c r="G145" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7">
+      <c r="G146" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7">
+      <c r="G147" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7">
+      <c r="G148" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7">
+      <c r="G149" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7">
+      <c r="G150" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7">
+      <c r="G151" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="AA62:AC62"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="R77:T77"/>
+    <mergeCell ref="Q78:U78"/>
+    <mergeCell ref="R94:T94"/>
+    <mergeCell ref="Q95:U95"/>
     <mergeCell ref="E62:H62"/>
     <mergeCell ref="I62:K62"/>
     <mergeCell ref="O62:S62"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="U61:W61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
